--- a/distillation_data.xlsx
+++ b/distillation_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangl\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CBDC0A-09A0-4BAB-8840-BFBF50BC0032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285162C5-8006-4B5B-A350-0E2B3DED143D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -835,7 +835,7 @@
         <v>7.27</v>
       </c>
       <c r="K11">
-        <v>31.95</v>
+        <v>30.95</v>
       </c>
     </row>
   </sheetData>

--- a/distillation_data.xlsx
+++ b/distillation_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangl\Desktop\assignment\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285162C5-8006-4B5B-A350-0E2B3DED143D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E03D4A-F4F1-4B3A-A53B-92D066F4765F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>batch_size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,10 @@
   </si>
   <si>
     <t>early stopping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student original accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -428,7 +432,7 @@
     <col min="11" max="11" width="18.125" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="21.5" customWidth="1"/>
-    <col min="14" max="14" width="18.125" customWidth="1"/>
+    <col min="14" max="14" width="21" customWidth="1"/>
     <col min="15" max="15" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -697,6 +701,9 @@
       <c r="K7">
         <v>25.44</v>
       </c>
+      <c r="N7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -731,6 +738,9 @@
       </c>
       <c r="K8">
         <v>30.17</v>
+      </c>
+      <c r="N8">
+        <v>0.48509999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
